--- a/biology/Biologie cellulaire et moléculaire/Jean_Pernès/Jean_Pernès.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Jean_Pernès/Jean_Pernès.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean_Pern%C3%A8s</t>
+          <t>Jean_Pernès</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Pernès (1939-1989) est un agronome et un généticien qui a mis en évidence les mécanismes de l'évolution des plantes cultivées, en particulier au travers de l'action des paysans depuis des millénaires. Il a insisté sur les limites des banques de gènes et le rôle des agriculteurs dans la sélection.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean_Pern%C3%A8s</t>
+          <t>Jean_Pernès</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Formation initiale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né en 1939, Jean Pernès sort en 1962 de l'Institut national agronomique de Paris. Il s'engage dans la coopération dans le cadre de son service militaire qu'il effectue en Afrique.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean_Pern%C3%A8s</t>
+          <t>Jean_Pernès</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Expérience tropicale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'issue de son service il demeure dans le continent africain au sein de l'ORSTOM où il suit des programmes d'amélioration des plantes cultivées. Il est frappé à la fois par la dynamique évolutive des espèces comparativement à ce qu'il a observé en Europe mais aussi par l'activité méconnue des paysans africains en termes de sélection.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jean_Pern%C3%A8s</t>
+          <t>Jean_Pernès</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Fondation du laboratoire de Génétique et de Physiologie des plantes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1973 Jean Pernès revient en France au sein de l'Université de Paris Sud. Il crée ensuite à la demande du CNRS le laboratoire de génétique et physiologie des plantes de Gif-sur-Yvette. Du fait de son insertion dans les réseaux internationaux et de ses fréquentes interventions à l'étranger, il contribue à diffuser ses observations.
 </t>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jean_Pern%C3%A8s</t>
+          <t>Jean_Pernès</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,7 +622,9 @@
           <t>Ses contributions à la discipline</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Pernès a essentiellement travaillé sur les flux de gènes entre espèces voisines. Il a montré que ces flux pour être rares et faibles en quantité n'en jouent pas moins un rôle essentiel dans l'évolution des espèces. Il a proposé l'identification de « complexes d'espèces » qui assouplit la notion traditionnelle d'espèce, et introduit le concept de « compartiments » au sein d'un complexe. Il a surtout travaillé sur des graminées, Panicum maximum, Pennisetum glaucum et Setaria italica.
 </t>
@@ -617,7 +637,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jean_Pern%C3%A8s</t>
+          <t>Jean_Pernès</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,7 +655,9 @@
           <t>Engagement contre l'appauvrissement des pools génétiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur la base de son travail scientifique Jean Pernès s'inquiète de ce que l'on appelle pas encore la perte de biodiversité domestique. Dans les années 1980 il contribue à la création du Bureau des ressources génétiques (BRG). Défenseur d'une relation dynamique à la biodiversité, il critique les projets de banques de gènes. Sa pensée dans le domaine est bien résumée par le passage suivant :
 « C’est ainsi qu’on peut échapper à l’affolante illusion que des coffres-forts climatisés - stock de graine, stock de culture de tissus - soient l’unique solution pour nous protéger contre notre propre gaspillage 
